--- a/biology/Zoologie/Duellmanohyla_schmidtorum/Duellmanohyla_schmidtorum.xlsx
+++ b/biology/Zoologie/Duellmanohyla_schmidtorum/Duellmanohyla_schmidtorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duellmanohyla schmidtorum est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duellmanohyla schmidtorum est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 1 300 et 2 200 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 1 300 et 2 200 m d'altitude, :
 dans le sud-ouest du Guatemala dans les départements de San Marcos et de Quetzaltenango ;
 dans le sud du Mexique dans l'extrême Est de l'Oaxaca et dans le Sud du Chiapas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 6 spécimens adultes mâles observés lors de la description originale mesurent entre 29,0 mm et 32,0 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 6 spécimens adultes mâles observés lors de la description originale mesurent entre 29,0 mm et 32,0 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Patterson Schmidt et de son frère Franklin James White Schmidt[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Patterson Schmidt et de son frère Franklin James White Schmidt.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stuart, 1954 : Descriptions of some new amphibians and reptiles from Guatemala. Proceedings of the Biological Society of Washington, vol. 67, p. 159-178 (texte intégral).</t>
         </is>
